--- a/testcase2.xlsx
+++ b/testcase2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razi\Desktop\gittest1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B005C-A3CD-4FD9-B825-C99098FA4AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>dfgdfgdfg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcase2.xlsx
+++ b/testcase2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razi\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B005C-A3CD-4FD9-B825-C99098FA4AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8C0A7-572D-4EB2-B291-E3E0426D88D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>dfgdfgdfg</t>
   </si>
@@ -345,14 +345,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A12:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>0</v>
       </c>
     </row>

--- a/testcase2.xlsx
+++ b/testcase2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razi\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8C0A7-572D-4EB2-B291-E3E0426D88D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEACD4C-D262-4DBA-9AF2-CA280F5D8CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>dfgdfgdfg</t>
+  </si>
+  <si>
+    <t>hjghjfhg</t>
+  </si>
+  <si>
+    <t>fghfgjh</t>
   </si>
 </sst>
 </file>
@@ -345,15 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A12:C12"/>
+  <dimension ref="A5:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -362,6 +373,11 @@
       </c>
       <c r="C12" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testcase2.xlsx
+++ b/testcase2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razi\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEACD4C-D262-4DBA-9AF2-CA280F5D8CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B3A69C-978F-48D7-9DF5-B6945E0EA6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>dfgdfgdfg</t>
   </si>
@@ -351,20 +351,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G14"/>
+  <dimension ref="A5:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K24" sqref="K24:S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -375,8 +380,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
         <v>1</v>
       </c>
     </row>
